--- a/treker/main/user_files/sample_report.xlsx
+++ b/treker/main/user_files/sample_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>time</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>runtime_errors</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
 </sst>
 </file>
@@ -373,35 +376,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
